--- a/Bases de datos/VAR Taylor.xlsx
+++ b/Bases de datos/VAR Taylor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8f671f597b2cb92/Documentos/Universidad Central 2021-I/Política Económica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\Brayan\Github\Politica-Economica\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD5C53D-E2CC-423D-8890-766850823398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE27DD-C425-4880-984E-61C186A866BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF3DB63D-BAA1-4E48-A07A-531329B4A4DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{FF3DB63D-BAA1-4E48-A07A-531329B4A4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR Taylor" sheetId="1" r:id="rId1"/>
+    <sheet name="VAR taylor (Original)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>FECHA</t>
   </si>
@@ -49,10 +50,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="####\-##"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +87,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,10 +412,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35720E0-BB60-48FD-8189-0A1A815FC87D}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C69"/>
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>27030</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.50729606325573395</v>
+      </c>
+      <c r="C2">
+        <v>9.0017078892710073E-2</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>27395</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.59540934133559897</v>
+      </c>
+      <c r="C3">
+        <v>0.17660414504647903</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>27760</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.616164318623178</v>
+      </c>
+      <c r="C4">
+        <v>0.23035360098040764</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>28126</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.64179968403394905</v>
+      </c>
+      <c r="C5">
+        <v>0.2735156174427828</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>28491</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.68055791507166197</v>
+      </c>
+      <c r="C6">
+        <v>0.14671847210135827</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>28856</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.74291695870976804</v>
+      </c>
+      <c r="C7">
+        <v>0.1454102044686213</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>29221</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.87770608239735404</v>
+      </c>
+      <c r="C8">
+        <v>0.19723054561194261</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>29587</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.20282762149586</v>
+      </c>
+      <c r="C9">
+        <v>-0.45693141751092092</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>29952</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.2867356312250999</v>
+      </c>
+      <c r="C10">
+        <v>-6.5499553863370428E-3</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>30317</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.03280614679095</v>
+      </c>
+      <c r="C11">
+        <v>0.20722183852183035</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>30682</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.3951600023193902</v>
+      </c>
+      <c r="C12">
+        <v>0.16324877195175586</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>31048</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.9064431235675499</v>
+      </c>
+      <c r="C13">
+        <v>7.0681372884443261E-2</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>31413</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.3685917944450603</v>
+      </c>
+      <c r="C14">
+        <v>0.12752077095808997</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>31778</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.1044895459590203</v>
+      </c>
+      <c r="C15">
+        <v>2.5790584332588601E-2</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>32143</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.1677468446629096</v>
+      </c>
+      <c r="C16">
+        <v>1.8018688571488216E-2</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>32509</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7.1859387986169097</v>
+      </c>
+      <c r="C17">
+        <v>0.1379083226789122</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>32874</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.5545824741586394</v>
+      </c>
+      <c r="C18">
+        <v>8.7728005856848229E-2</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>33239</v>
+      </c>
+      <c r="B19" s="3">
+        <v>11.010389443926201</v>
+      </c>
+      <c r="C19">
+        <v>0.25514557827089041</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>33604</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13.4094323902842</v>
+      </c>
+      <c r="C20">
+        <v>0.1896490184261326</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>33970</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14.7210068594948</v>
+      </c>
+      <c r="C21">
+        <v>0.11827323133328249</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>34335</v>
+      </c>
+      <c r="B22" s="3">
+        <v>16.713546154339099</v>
+      </c>
+      <c r="C22">
+        <v>9.3875815593560896E-2</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>34700</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20.588657164626898</v>
+      </c>
+      <c r="C23">
+        <v>0.10360326842102223</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>35065</v>
+      </c>
+      <c r="B24" s="3">
+        <v>24.1940881998989</v>
+      </c>
+      <c r="C24">
+        <v>9.1035839739594775E-3</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>35431</v>
+      </c>
+      <c r="B25" s="3">
+        <v>27.399424425009901</v>
+      </c>
+      <c r="C25">
+        <v>8.0371991487522096E-2</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>35796</v>
+      </c>
+      <c r="B26" s="3">
+        <v>30.5938757925855</v>
+      </c>
+      <c r="C26">
+        <v>8.4873147058681223E-2</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>36161</v>
+      </c>
+      <c r="B27" s="3">
+        <v>33.667067812662403</v>
+      </c>
+      <c r="C27">
+        <v>4.2461690243354361E-2</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>36526</v>
+      </c>
+      <c r="B28" s="3">
+        <v>37.357746610689297</v>
+      </c>
+      <c r="C28">
+        <v>5.3107294566806608E-2</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>36892</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41.562658631539399</v>
+      </c>
+      <c r="C29">
+        <v>6.4473595290809885E-2</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>37257</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45.372460496614003</v>
+      </c>
+      <c r="C30">
+        <v>3.7165754080585561E-2</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>37622</v>
+      </c>
+      <c r="B31" s="3">
+        <v>49.659364995722399</v>
+      </c>
+      <c r="C31">
+        <v>4.1879598837475253E-2</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>37987</v>
+      </c>
+      <c r="B32" s="3">
+        <v>55.7748238331585</v>
+      </c>
+      <c r="C32">
+        <v>7.7514826296983849E-2</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>38353</v>
+      </c>
+      <c r="B33" s="3">
+        <v>63.470519838415797</v>
+      </c>
+      <c r="C33">
+        <v>7.6599328972374814E-2</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B34" s="3">
+        <v>70.751065342715407</v>
+      </c>
+      <c r="C34">
+        <v>0.13306727186301048</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B35" s="3">
+        <v>77.371398460047004</v>
+      </c>
+      <c r="C35">
+        <v>0.18321912032743121</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B36" s="3">
+        <v>87.758299195232595</v>
+      </c>
+      <c r="C36">
+        <v>0.14466640981248391</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B37" s="3">
+        <v>94.640784442181598</v>
+      </c>
+      <c r="C37">
+        <v>-1.6517837699235865E-3</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B38" s="3">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>0.21942849488266558</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B39" s="3">
+        <v>104.878145545804</v>
+      </c>
+      <c r="C39">
+        <v>0.13400240247218703</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B40" s="3">
+        <v>109.592814773295</v>
+      </c>
+      <c r="C40">
+        <v>9.9625217043066969E-2</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B41" s="3">
+        <v>115.32587941001999</v>
+      </c>
+      <c r="C41">
+        <v>7.0405413770114764E-2</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B42" s="3">
+        <v>120.537895072008</v>
+      </c>
+      <c r="C42">
+        <v>1.6738973789357084E-2</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B43" s="3">
+        <v>121.50454468234</v>
+      </c>
+      <c r="C43">
+        <v>8.3005333256709043E-2</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B44" s="3">
+        <v>121.483218499782</v>
+      </c>
+      <c r="C44">
+        <v>4.3486165396878648E-2</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="3">
+        <v>123.458180275621</v>
+      </c>
+      <c r="C45">
+        <v>2.3161513412425911E-2</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B46" s="3">
+        <v>126.20045228108999</v>
+      </c>
+      <c r="C46">
+        <v>3.5430532593622652E-2</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B47" s="3">
+        <v>128.845869400021</v>
+      </c>
+      <c r="C47">
+        <v>2.0601209826801262E-2</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D657521-6A32-4DF1-A680-2582EA96B3C0}">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,749 +1071,738 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>200303</v>
+        <v>200306</v>
       </c>
       <c r="B2">
-        <v>2.0999999999999996</v>
+        <v>1.71</v>
       </c>
       <c r="C2">
-        <v>0.81647379533367825</v>
+        <v>1.6886473590032454</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>200306</v>
+        <v>200309</v>
       </c>
       <c r="B3">
-        <v>1.71</v>
+        <v>1.6100000000000003</v>
       </c>
       <c r="C3">
-        <v>1.6886473590032454</v>
+        <v>1.1952710541065421</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>200309</v>
+        <v>200312</v>
       </c>
       <c r="B4">
-        <v>1.6100000000000003</v>
+        <v>0.99000000000000021</v>
       </c>
       <c r="C4">
-        <v>1.1952710541065421</v>
+        <v>1.264877118862388</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>200312</v>
+        <v>200403</v>
       </c>
       <c r="B5">
-        <v>0.99000000000000021</v>
+        <v>0.71</v>
       </c>
       <c r="C5">
-        <v>1.264877118862388</v>
+        <v>1.8952402757638112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>200403</v>
+        <v>200406</v>
       </c>
       <c r="B6">
-        <v>0.71</v>
+        <v>0.57000000000000028</v>
       </c>
       <c r="C6">
-        <v>1.8952402757638112</v>
+        <v>-1.8724721625804876E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>200406</v>
+        <v>200409</v>
       </c>
       <c r="B7">
-        <v>0.57000000000000028</v>
+        <v>0.46999999999999975</v>
       </c>
       <c r="C7">
-        <v>-1.8724721625804876E-2</v>
+        <v>1.1836240370569202</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>200409</v>
+        <v>200412</v>
       </c>
       <c r="B8">
-        <v>0.46999999999999975</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.1836240370569202</v>
+        <v>3.1872755765600163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>200412</v>
+        <v>200503</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="C9">
-        <v>3.1872755765600163</v>
+        <v>-0.2080742370611299</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>200503</v>
+        <v>200506</v>
       </c>
       <c r="B10">
-        <v>3.0000000000000249E-2</v>
+        <v>-0.16999999999999993</v>
       </c>
       <c r="C10">
-        <v>-0.2080742370611299</v>
+        <v>1.9070235956662056</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>200506</v>
+        <v>200509</v>
       </c>
       <c r="B11">
-        <v>-0.16999999999999993</v>
+        <v>1.9999999999999574E-2</v>
       </c>
       <c r="C11">
-        <v>1.9070235956662056</v>
+        <v>-6.703888847132243E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>200509</v>
+        <v>200512</v>
       </c>
       <c r="B12">
-        <v>1.9999999999999574E-2</v>
+        <v>-0.15000000000000036</v>
       </c>
       <c r="C12">
-        <v>-6.703888847132243E-2</v>
+        <v>1.8995719368406792</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>200512</v>
+        <v>200603</v>
       </c>
       <c r="B13">
-        <v>-0.15000000000000036</v>
+        <v>-0.38999999999999968</v>
       </c>
       <c r="C13">
-        <v>1.8995719368406792</v>
+        <v>2.1991801603861734</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>200603</v>
+        <v>200606</v>
       </c>
       <c r="B14">
-        <v>-0.38999999999999968</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C14">
-        <v>2.1991801603861734</v>
+        <v>1.6829643030660244</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>200606</v>
+        <v>200609</v>
       </c>
       <c r="B15">
-        <v>-0.56000000000000005</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="C15">
-        <v>1.6829643030660244</v>
+        <v>1.7764173116593656</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>200609</v>
+        <v>200612</v>
       </c>
       <c r="B16">
-        <v>8.0000000000000071E-2</v>
+        <v>-1.9999999999999574E-2</v>
       </c>
       <c r="C16">
-        <v>1.7764173116593656</v>
+        <v>1.3520712320724046</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>200612</v>
+        <v>200703</v>
       </c>
       <c r="B17">
-        <v>-1.9999999999999574E-2</v>
+        <v>1.7800000000000002</v>
       </c>
       <c r="C17">
-        <v>1.3520712320724046</v>
+        <v>1.8298897797119624</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>200703</v>
+        <v>200706</v>
       </c>
       <c r="B18">
-        <v>1.7800000000000002</v>
+        <v>2.0300000000000002</v>
       </c>
       <c r="C18">
-        <v>1.8298897797119624</v>
+        <v>1.5469737232000709</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>200706</v>
+        <v>200709</v>
       </c>
       <c r="B19">
-        <v>2.0300000000000002</v>
+        <v>1.0099999999999998</v>
       </c>
       <c r="C19">
-        <v>1.5469737232000709</v>
+        <v>2.0173233723230739</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>200709</v>
+        <v>200712</v>
       </c>
       <c r="B20">
-        <v>1.0099999999999998</v>
+        <v>1.6900000000000004</v>
       </c>
       <c r="C20">
-        <v>2.0173233723230739</v>
+        <v>1.0186556386510659</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>200712</v>
+        <v>200803</v>
       </c>
       <c r="B21">
-        <v>1.6900000000000004</v>
+        <v>1.9299999999999997</v>
       </c>
       <c r="C21">
-        <v>1.0186556386510659</v>
+        <v>0.82619177568386415</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>200803</v>
+        <v>200806</v>
       </c>
       <c r="B22">
-        <v>1.9299999999999997</v>
+        <v>3.1799999999999997</v>
       </c>
       <c r="C22">
-        <v>0.82619177568386415</v>
+        <v>0.2251790138919765</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>200806</v>
+        <v>200809</v>
       </c>
       <c r="B23">
-        <v>3.1799999999999997</v>
+        <v>3.5700000000000003</v>
       </c>
       <c r="C23">
-        <v>0.2251790138919765</v>
+        <v>1.1049969774874757</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>200809</v>
+        <v>200812</v>
       </c>
       <c r="B24">
-        <v>3.5700000000000003</v>
+        <v>3.67</v>
       </c>
       <c r="C24">
-        <v>1.1049969774874757</v>
+        <v>-1.7423367063917172</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>200812</v>
+        <v>200903</v>
       </c>
       <c r="B25">
-        <v>3.67</v>
+        <v>1.1399999999999997</v>
       </c>
       <c r="C25">
-        <v>-1.7423367063917172</v>
+        <v>0.36466165925575666</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>200903</v>
+        <v>200906</v>
       </c>
       <c r="B26">
-        <v>1.1399999999999997</v>
+        <v>-1.19</v>
       </c>
       <c r="C26">
-        <v>0.36466165925575666</v>
+        <v>1.142985583523811</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>200906</v>
+        <v>200909</v>
       </c>
       <c r="B27">
-        <v>-1.19</v>
+        <v>-1.79</v>
       </c>
       <c r="C27">
-        <v>1.142985583523811</v>
+        <v>0.80728062008406676</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>200909</v>
+        <v>200912</v>
       </c>
       <c r="B28">
-        <v>-1.79</v>
+        <v>-3</v>
       </c>
       <c r="C28">
-        <v>0.80728062008406676</v>
+        <v>0.90016554289228823</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>200912</v>
+        <v>201003</v>
       </c>
       <c r="B29">
-        <v>-3</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="C29">
-        <v>0.90016554289228823</v>
+        <v>0.91478310183399447</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>201003</v>
+        <v>201006</v>
       </c>
       <c r="B30">
-        <v>-1.1599999999999999</v>
+        <v>-0.75</v>
       </c>
       <c r="C30">
-        <v>0.91478310183399447</v>
+        <v>1.6129710013045337</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>201006</v>
+        <v>201009</v>
       </c>
       <c r="B31">
-        <v>-0.75</v>
+        <v>-0.7200000000000002</v>
       </c>
       <c r="C31">
-        <v>1.6129710013045337</v>
+        <v>0.85387416256925042</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>201009</v>
+        <v>201012</v>
       </c>
       <c r="B32">
-        <v>-0.7200000000000002</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="C32">
-        <v>0.85387416256925042</v>
+        <v>2.0004370312199664</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>201012</v>
+        <v>201103</v>
       </c>
       <c r="B33">
-        <v>0.16999999999999993</v>
+        <v>0.18999999999999995</v>
       </c>
       <c r="C33">
-        <v>2.0004370312199664</v>
+        <v>1.9602551285850958</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>201103</v>
+        <v>201106</v>
       </c>
       <c r="B34">
-        <v>0.18999999999999995</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="C34">
-        <v>1.9602551285850958</v>
+        <v>1.719397563856272</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>201106</v>
+        <v>201109</v>
       </c>
       <c r="B35">
-        <v>0.22999999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="C35">
-        <v>1.719397563856272</v>
+        <v>2.0986843090185698</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>201109</v>
+        <v>201112</v>
       </c>
       <c r="B36">
         <v>0.73</v>
       </c>
       <c r="C36">
-        <v>2.0986843090185698</v>
+        <v>0.58543531322231168</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>201112</v>
+        <v>201203</v>
       </c>
       <c r="B37">
-        <v>0.73</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="C37">
-        <v>0.58543531322231168</v>
+        <v>1.2663286708309911</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>201203</v>
+        <v>201206</v>
       </c>
       <c r="B38">
-        <v>0.39999999999999991</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="C38">
-        <v>1.2663286708309911</v>
+        <v>0.67285287890118572</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>201206</v>
+        <v>201209</v>
       </c>
       <c r="B39">
-        <v>0.20000000000000018</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="C39">
-        <v>0.67285287890118572</v>
+        <v>-0.14186573785061971</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>201209</v>
+        <v>201212</v>
       </c>
       <c r="B40">
-        <v>8.0000000000000071E-2</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C40">
-        <v>-0.14186573785061971</v>
+        <v>1.0397856755550912</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>201212</v>
+        <v>201303</v>
       </c>
       <c r="B41">
-        <v>-0.56000000000000005</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="C41">
-        <v>1.0397856755550912</v>
+        <v>1.5179685211278449</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>201303</v>
+        <v>201306</v>
       </c>
       <c r="B42">
-        <v>-1.0900000000000001</v>
+        <v>-0.83999999999999986</v>
       </c>
       <c r="C42">
-        <v>1.5179685211278449</v>
+        <v>2.5939506360320101</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>201306</v>
+        <v>201309</v>
       </c>
       <c r="B43">
-        <v>-0.83999999999999986</v>
+        <v>-0.73</v>
       </c>
       <c r="C43">
-        <v>2.5939506360320101</v>
+        <v>0.63651971369591909</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>201309</v>
+        <v>201312</v>
       </c>
       <c r="B44">
-        <v>-0.73</v>
+        <v>-1.06</v>
       </c>
       <c r="C44">
-        <v>0.63651971369591909</v>
+        <v>1.5185924302442682</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>201312</v>
+        <v>201403</v>
       </c>
       <c r="B45">
-        <v>-1.06</v>
+        <v>-0.49000000000000021</v>
       </c>
       <c r="C45">
-        <v>1.5185924302442682</v>
+        <v>1.2669222542866221</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>201403</v>
+        <v>201406</v>
       </c>
       <c r="B46">
-        <v>-0.49000000000000021</v>
+        <v>-0.20999999999999996</v>
       </c>
       <c r="C46">
-        <v>1.2669222542866221</v>
+        <v>0.6171433070859651</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>201406</v>
+        <v>201409</v>
       </c>
       <c r="B47">
-        <v>-0.20999999999999996</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="C47">
-        <v>0.6171433070859651</v>
+        <v>0.72585367628672259</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>201409</v>
+        <v>201412</v>
       </c>
       <c r="B48">
-        <v>-0.14000000000000012</v>
+        <v>0.66000000000000014</v>
       </c>
       <c r="C48">
-        <v>0.72585367628672259</v>
+        <v>0.97103255423688228</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>201412</v>
+        <v>201503</v>
       </c>
       <c r="B49">
-        <v>0.66000000000000014</v>
+        <v>1.5599999999999996</v>
       </c>
       <c r="C49">
-        <v>0.97103255423688228</v>
+        <v>0.97399259752198009</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>201503</v>
+        <v>201506</v>
       </c>
       <c r="B50">
-        <v>1.5599999999999996</v>
+        <v>1.42</v>
       </c>
       <c r="C50">
-        <v>0.97399259752198009</v>
+        <v>0.40479557899021124</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>201506</v>
+        <v>201509</v>
       </c>
       <c r="B51">
-        <v>1.42</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="C51">
-        <v>0.40479557899021124</v>
+        <v>1.2013979246136104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>201509</v>
+        <v>201512</v>
       </c>
       <c r="B52">
-        <v>2.3499999999999996</v>
+        <v>3.7699999999999996</v>
       </c>
       <c r="C52">
-        <v>1.2013979246136104</v>
+        <v>-0.77528545553175465</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>201512</v>
+        <v>201603</v>
       </c>
       <c r="B53">
-        <v>3.7699999999999996</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C53">
-        <v>-0.77528545553175465</v>
+        <v>1.7018719016987351</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>201603</v>
+        <v>201606</v>
       </c>
       <c r="B54">
-        <v>4.9800000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="C54">
-        <v>1.7018719016987351</v>
+        <v>-0.2336252620533377</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>201606</v>
+        <v>201609</v>
       </c>
       <c r="B55">
-        <v>5.6</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="C55">
-        <v>-0.2336252620533377</v>
+        <v>0.60476084290882459</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>201609</v>
+        <v>201612</v>
       </c>
       <c r="B56">
-        <v>4.2699999999999996</v>
+        <v>2.75</v>
       </c>
       <c r="C56">
-        <v>0.60476084290882459</v>
+        <v>0.55637044049895934</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>201612</v>
+        <v>201703</v>
       </c>
       <c r="B57">
-        <v>2.75</v>
+        <v>1.6900000000000004</v>
       </c>
       <c r="C57">
-        <v>0.55637044049895934</v>
+        <v>-0.16864150893248239</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>201703</v>
+        <v>201706</v>
       </c>
       <c r="B58">
-        <v>1.6900000000000004</v>
+        <v>0.99000000000000021</v>
       </c>
       <c r="C58">
-        <v>-0.16864150893248239</v>
+        <v>0.63047349705216638</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>201706</v>
+        <v>201709</v>
       </c>
       <c r="B59">
-        <v>0.99000000000000021</v>
+        <v>0.9700000000000002</v>
       </c>
       <c r="C59">
-        <v>0.63047349705216638</v>
+        <v>0.50993333093778459</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>201709</v>
+        <v>201712</v>
       </c>
       <c r="B60">
-        <v>0.9700000000000002</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="C60">
-        <v>0.50993333093778459</v>
+        <v>0.53434534855740168</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>201712</v>
+        <v>201803</v>
       </c>
       <c r="B61">
-        <v>1.0899999999999999</v>
+        <v>0.14000000000000012</v>
       </c>
       <c r="C61">
-        <v>0.53434534855740168</v>
+        <v>0.60228319609732384</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>201803</v>
+        <v>201806</v>
       </c>
       <c r="B62">
-        <v>0.14000000000000012</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="C62">
-        <v>0.60228319609732384</v>
+        <v>0.71078352828165559</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>201806</v>
+        <v>201809</v>
       </c>
       <c r="B63">
-        <v>0.20000000000000018</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="C63">
-        <v>0.71078352828165559</v>
+        <v>0.83607876709095086</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>201809</v>
+        <v>201812</v>
       </c>
       <c r="B64">
-        <v>0.22999999999999998</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="C64">
-        <v>0.83607876709095086</v>
+        <v>0.49708981526759194</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>201812</v>
+        <v>201903</v>
       </c>
       <c r="B65">
-        <v>0.18000000000000016</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="C65">
-        <v>0.49708981526759194</v>
+        <v>0.7593596190494265</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>201903</v>
+        <v>201906</v>
       </c>
       <c r="B66">
-        <v>0.20999999999999996</v>
+        <v>0.43000000000000016</v>
       </c>
       <c r="C66">
-        <v>0.7593596190494265</v>
+        <v>1.5092235772761371</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>201906</v>
+        <v>201909</v>
       </c>
       <c r="B67">
-        <v>0.43000000000000016</v>
+        <v>0.81999999999999984</v>
       </c>
       <c r="C67">
-        <v>1.5092235772761371</v>
+        <v>0.60833936342735229</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B68">
-        <v>0.81999999999999984</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="C68">
-        <v>0.60833936342735229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>201912</v>
-      </c>
-      <c r="B69">
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="C69">
         <v>0.47350664154502875</v>
       </c>
     </row>
